--- a/ExpDataAnalyze/output/processed_data/personality_similarity_bfi.xlsx
+++ b/ExpDataAnalyze/output/processed_data/personality_similarity_bfi.xlsx
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06270444935206131</v>
+        <v>0.06270444935206118</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1594282158006621</v>
+        <v>0.159428215800662</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03116725418456507</v>
+        <v>-0.0311672541845651</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3396378413847061</v>
+        <v>0.339637841384706</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3396378413847061</v>
+        <v>0.339637841384706</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4069465734220575</v>
+        <v>0.4069465734220574</v>
       </c>
       <c r="J6" t="n">
         <v>14</v>
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3381848075591891</v>
+        <v>0.338184807559189</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3381848075591891</v>
+        <v>0.338184807559189</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4069465734220575</v>
+        <v>0.4069465734220574</v>
       </c>
       <c r="J8" t="n">
         <v>14</v>
@@ -1163,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3381848075591891</v>
+        <v>0.338184807559189</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3381848075591891</v>
+        <v>0.338184807559189</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4069465734220575</v>
+        <v>0.4069465734220574</v>
       </c>
       <c r="J10" t="n">
         <v>14</v>
@@ -1331,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5862200536601704</v>
+        <v>0.5862200536601705</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6078225057170448</v>
+        <v>0.6078225057170447</v>
       </c>
       <c r="J11" t="n">
         <v>12</v>
@@ -1415,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5862200536601704</v>
+        <v>0.5862200536601705</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6078225057170448</v>
+        <v>0.6078225057170447</v>
       </c>
       <c r="J12" t="n">
         <v>12</v>
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6440374777308322</v>
+        <v>0.6440374777308323</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6078225057170448</v>
+        <v>0.6078225057170447</v>
       </c>
       <c r="J13" t="n">
         <v>12</v>
@@ -1583,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6440374777308322</v>
+        <v>0.6440374777308323</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6078225057170448</v>
+        <v>0.6078225057170447</v>
       </c>
       <c r="J14" t="n">
         <v>12</v>
@@ -1683,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6078225057170448</v>
+        <v>0.6078225057170447</v>
       </c>
       <c r="J15" t="n">
         <v>12</v>
@@ -1767,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6078225057170448</v>
+        <v>0.6078225057170447</v>
       </c>
       <c r="J16" t="n">
         <v>12</v>
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6078225057170448</v>
+        <v>0.6078225057170447</v>
       </c>
       <c r="J17" t="n">
         <v>12</v>
@@ -1935,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6078225057170448</v>
+        <v>0.6078225057170447</v>
       </c>
       <c r="J18" t="n">
         <v>12</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6985846746603648</v>
+        <v>0.6985846746603647</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.4503677022587731</v>
+        <v>-0.450367702258773</v>
       </c>
       <c r="J19" t="n">
         <v>12</v>
@@ -2103,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.4503677022587731</v>
+        <v>-0.450367702258773</v>
       </c>
       <c r="J20" t="n">
         <v>12</v>
@@ -2171,7 +2171,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2421140069425852</v>
+        <v>0.2421140069425851</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4438643716561611</v>
+        <v>0.4438643716561609</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1296603647234818</v>
+        <v>0.1296603647234819</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.05171582446065441</v>
+        <v>-0.05171582446065436</v>
       </c>
       <c r="J24" t="n">
         <v>11</v>
@@ -2523,7 +2523,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.05171582446065441</v>
+        <v>-0.05171582446065436</v>
       </c>
       <c r="J25" t="n">
         <v>11</v>
@@ -2591,7 +2591,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7375451211402405</v>
+        <v>0.7375451211402406</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.3896953479108791</v>
+        <v>-0.3896953479108792</v>
       </c>
       <c r="J27" t="n">
         <v>13</v>
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.3896953479108791</v>
+        <v>-0.3896953479108792</v>
       </c>
       <c r="J28" t="n">
         <v>13</v>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.6712171883822156</v>
+        <v>-0.6712171883822158</v>
       </c>
       <c r="J30" t="n">
         <v>9</v>
@@ -3011,7 +3011,7 @@
         <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.5986186694669722</v>
+        <v>-0.5986186694669723</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.6712171883822156</v>
+        <v>-0.6712171883822158</v>
       </c>
       <c r="J31" t="n">
         <v>9</v>
@@ -3095,7 +3095,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6530347147292661</v>
+        <v>0.653034714729266</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6530347147292661</v>
+        <v>0.653034714729266</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4329206792151856</v>
+        <v>0.4329206792151857</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4329206792151856</v>
+        <v>0.4329206792151857</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3981192781113871</v>
+        <v>0.398119278111387</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3981192781113871</v>
+        <v>0.398119278111387</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6714707202676791</v>
+        <v>0.6714707202676788</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6714707202676791</v>
+        <v>0.6714707202676788</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.2658912436718073</v>
+        <v>-0.2658912436718074</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3429810303809885</v>
+        <v>0.3429810303809886</v>
       </c>
       <c r="J40" t="n">
         <v>8</v>
@@ -3851,7 +3851,7 @@
         <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.2658912436718073</v>
+        <v>-0.2658912436718074</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0223550917004948</v>
+        <v>0.0223550917004949</v>
       </c>
       <c r="J41" t="n">
         <v>8</v>
@@ -3935,7 +3935,7 @@
         <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.4697449803015143</v>
+        <v>-0.4697449803015145</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3429810303809885</v>
+        <v>0.3429810303809886</v>
       </c>
       <c r="J42" t="n">
         <v>8</v>
@@ -4019,7 +4019,7 @@
         <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.4697449803015143</v>
+        <v>-0.4697449803015145</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0223550917004948</v>
+        <v>0.0223550917004949</v>
       </c>
       <c r="J43" t="n">
         <v>8</v>
@@ -4103,7 +4103,7 @@
         <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.2348428356432185</v>
+        <v>-0.2348428356432186</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3429810303809885</v>
+        <v>0.3429810303809886</v>
       </c>
       <c r="J44" t="n">
         <v>8</v>
@@ -4187,7 +4187,7 @@
         <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.2348428356432185</v>
+        <v>-0.2348428356432186</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0223550917004948</v>
+        <v>0.0223550917004949</v>
       </c>
       <c r="J45" t="n">
         <v>8</v>
@@ -4287,7 +4287,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5800343853290305</v>
+        <v>0.5800343853290304</v>
       </c>
       <c r="J46" t="n">
         <v>12</v>
